--- a/biology/Zoologie/Faisan_argenté/Faisan_argenté.xlsx
+++ b/biology/Zoologie/Faisan_argenté/Faisan_argenté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophura nycthemera
-Le Faisan argenté (Lophura nycthemera) est une espèce d'oiseaux de la famille des Phasianidae Il existe 15 sous-espèces réparties dans tout le sud-est asiatique[1].
+Le Faisan argenté (Lophura nycthemera) est une espèce d'oiseaux de la famille des Phasianidae Il existe 15 sous-espèces réparties dans tout le sud-est asiatique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure de 70 à 125 cm et pèse de 1 à 2 kg.
 Il peut vivre jusqu'à 10 ans.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisan argenté est omnivore.
 Son régime comporte une large gamme de végétaux: bourgeons, boutons floraux, fleurs, jeunes feuilles, pousses, herbes, bulbes, tubercules, baies, fruits et graines...
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Comportement non social</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche de nourriture a lieu tôt le matin et tard le soir. Le soir, de petits groupes regagnent les dortoirs et juchent ensemble dans les arbres, à cinq ou six mètres de haut, pour y passer la nuit.
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Comportement social</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce est polygame et territoriale, chaque mâle revendiquant un territoire par l’émission de cris sonores et de battements d’ailes puissants. Les coqs se livrent à des combats acharnés pour défendre leur territoire et accaparer de deux à cinq femelles afin de constituer un harem. Le mâle s’accouple avec chaque femelle, chacune assumant seule les tâches de l’incubation et de l’élevage des jeunes.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré une relative abondance de l’espèce dans la nature, les données émanent surtout d’observations en captivité. Quelques observations en milieu naturel montrent que les nids sont souvent situés au pied des arbres ou dans une simple cavité du sol recouverte de feuilles. La femelle pond de 6 à 15 œufs.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre et sud de la Chine, Hainan, Birmanie, Viêt Nam, Laos, Cambodge et Thaïlande.
 </t>
@@ -688,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,7 +730,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisan argenté habite surtout les versants enherbés et buissonneux parsemés de pitons rocheux en lisière de forêt. Il pénètre aussi dans les clairières et les bois clairs mais évite généralement la forêt dense.
 Il se trouve aussi dans les prairies, les massifs de bambous et les forêts tropicales de montagne à feuilles caduques situées entre 600 et 2000 mètres d'altitude.
@@ -720,7 +746,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -738,7 +764,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L. n. nycthemera Linné, 1758 : sud de la Chine (Kouangsi, Kouangtong, nord Viêt Nam, à l’est du fleuve rouge).
 L. n. occidentalis Delacour, 1948 : nord-ouest du Yunnan et nord-est du Myanmar.
@@ -766,7 +794,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Faisan_argent%C3%A9</t>
+          <t>Faisan_argenté</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -784,7 +812,9 @@
           <t>Statut, conservation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce est considérée comme globalement non menacée et même commune ou très commune et stable en Chine mais plusieurs sous-espèces notamment au Viêt Nam, en Thaïlande et au Cambodge sont plus ou moins menacées.
 </t>
